--- a/tabular/genus/amdo-refseqs-side-data.xlsx
+++ b/tabular/genus/amdo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0523B37-F9FC-BF49-98CB-EBF8A975452F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ADD1E2-974C-104E-8080-DB982D063A3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t xml:space="preserve"> Carnivore amdoparvovirus 1</t>
   </si>
@@ -50,9 +50,6 @@
     <t>ADV</t>
   </si>
   <si>
-    <t xml:space="preserve"> Carnivore amdoparvovirus 2</t>
-  </si>
-  <si>
     <t>gray fox amdovirus</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>GFAV</t>
   </si>
   <si>
-    <t xml:space="preserve"> Carnivore amdoparvovirus 3</t>
-  </si>
-  <si>
     <t>racoon dog and fox amdoparvovirus</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>RFAV</t>
   </si>
   <si>
-    <t xml:space="preserve"> Carnivore amdoparvovirus 4</t>
-  </si>
-  <si>
     <t>skunk amdoparvovirus</t>
   </si>
   <si>
@@ -95,9 +86,6 @@
     <t>SKAV</t>
   </si>
   <si>
-    <t xml:space="preserve"> Carnivore amdoparvovirus 5</t>
-  </si>
-  <si>
     <t>red panda amdoparvovirus</t>
   </si>
   <si>
@@ -153,13 +141,25 @@
   </si>
   <si>
     <t>accession-other</t>
+  </si>
+  <si>
+    <t>MT770848</t>
+  </si>
+  <si>
+    <t>Labrador-amdoparvovirus-1</t>
+  </si>
+  <si>
+    <t>MULL</t>
+  </si>
+  <si>
+    <t>LAPV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +171,12 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -522,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5CE6FC-94FB-E64A-8308-5869E9818659}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="E22:F22"/>
+      <selection activeCell="E5" sqref="A1:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,46 +543,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -593,31 +599,31 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
         <v>2</v>
@@ -625,181 +631,226 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tabular/genus/amdo-refseqs-side-data.xlsx
+++ b/tabular/genus/amdo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ADD1E2-974C-104E-8080-DB982D063A3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B34FA1-0092-5A44-A33E-B0E89B51BA6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:N7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/genus/amdo-refseqs-side-data.xlsx
+++ b/tabular/genus/amdo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B34FA1-0092-5A44-A33E-B0E89B51BA6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E663AA6-B594-CE44-B35D-FDA30F740214}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
+    <workbookView xWindow="23880" yWindow="7360" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
   <si>
     <t xml:space="preserve"> Carnivore amdoparvovirus 1</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>LAPV</t>
+  </si>
+  <si>
+    <t>Urocyon cinereoargenteus</t>
+  </si>
+  <si>
+    <t>Mephitis mephitis</t>
+  </si>
+  <si>
+    <t>Nyctereutes procyonoides</t>
+  </si>
+  <si>
+    <t>Ailurus fulgens</t>
   </si>
 </sst>
 </file>
@@ -531,7 +543,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J6" sqref="A1:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -687,7 +699,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -731,7 +743,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -775,7 +787,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>

--- a/tabular/genus/amdo-refseqs-side-data.xlsx
+++ b/tabular/genus/amdo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E663AA6-B594-CE44-B35D-FDA30F740214}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7FB63F-F8FA-3047-BD2A-DBABED789E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="7360" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
+    <workbookView xWindow="23160" yWindow="7360" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t xml:space="preserve"> Carnivore amdoparvovirus 1</t>
   </si>
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>Ailurus fulgens</t>
+  </si>
+  <si>
+    <t>Amdoparvovirus</t>
+  </si>
+  <si>
+    <t>Neovison vison</t>
+  </si>
+  <si>
+    <t>Martes americana</t>
   </si>
 </sst>
 </file>
@@ -543,7 +552,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="A1:N7"/>
+      <selection activeCell="E5" sqref="A1:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,6 +560,7 @@
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="29.83203125" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -611,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -658,7 +668,7 @@
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
@@ -702,7 +712,7 @@
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
@@ -746,7 +756,7 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -790,7 +800,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
@@ -831,10 +841,10 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>

--- a/tabular/genus/amdo-refseqs-side-data.xlsx
+++ b/tabular/genus/amdo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7FB63F-F8FA-3047-BD2A-DBABED789E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50E6772-8DC8-F343-AA49-27F261964CE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="7360" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
+    <workbookView xWindow="3540" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t xml:space="preserve"> Carnivore amdoparvovirus 1</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>Martes americana</t>
+  </si>
+  <si>
+    <t>virus_subfamily</t>
+  </si>
+  <si>
+    <t>Parvovirinae</t>
   </si>
 </sst>
 </file>
@@ -549,21 +555,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5CE6FC-94FB-E64A-8308-5869E9818659}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:N7"/>
+      <selection activeCell="C6" sqref="A1:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -571,43 +578,46 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -615,20 +625,20 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
       <c r="H2" t="s">
         <v>34</v>
       </c>
@@ -648,10 +658,13 @@
         <v>34</v>
       </c>
       <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -659,20 +672,20 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
       <c r="H3" t="s">
         <v>34</v>
       </c>
@@ -692,10 +705,13 @@
         <v>34</v>
       </c>
       <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -703,20 +719,20 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" t="s">
         <v>34</v>
       </c>
@@ -736,10 +752,13 @@
         <v>34</v>
       </c>
       <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -747,20 +766,20 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" t="s">
         <v>34</v>
       </c>
@@ -780,10 +799,13 @@
         <v>34</v>
       </c>
       <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -791,20 +813,20 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>34</v>
       </c>
@@ -824,10 +846,13 @@
         <v>34</v>
       </c>
       <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -835,20 +860,20 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>44</v>
       </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
       <c r="H7" t="s">
         <v>34</v>
       </c>
@@ -868,6 +893,9 @@
         <v>34</v>
       </c>
       <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
         <v>38</v>
       </c>
     </row>

--- a/tabular/genus/amdo-refseqs-side-data.xlsx
+++ b/tabular/genus/amdo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50E6772-8DC8-F343-AA49-27F261964CE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE91A1EA-15C8-4145-B551-D0CC27B8D671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:O7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/genus/amdo-refseqs-side-data.xlsx
+++ b/tabular/genus/amdo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE91A1EA-15C8-4145-B551-D0CC27B8D671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D972060-7DCD-514F-8CBC-742EBFBFEEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>RpAPV</t>
   </si>
   <si>
-    <t>accession-ID</t>
-  </si>
-  <si>
     <t>virus_name</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Parvovirinae</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="A1:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,49 +572,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -625,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -634,31 +634,31 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
         <v>2</v>
@@ -672,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s">
         <v>6</v>
@@ -719,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -728,31 +728,31 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s">
         <v>10</v>
@@ -766,7 +766,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -775,31 +775,31 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O5" t="s">
         <v>14</v>
@@ -813,7 +813,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -822,31 +822,31 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O6" t="s">
         <v>18</v>
@@ -854,49 +854,49 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/genus/amdo-refseqs-side-data.xlsx
+++ b/tabular/genus/amdo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D972060-7DCD-514F-8CBC-742EBFBFEEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181DD8CE-41EA-D84F-A049-209B7A87A2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:O7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/genus/amdo-refseqs-side-data.xlsx
+++ b/tabular/genus/amdo-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvovirus-GLUE/tabular/genus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181DD8CE-41EA-D84F-A049-209B7A87A2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9027AA-B22A-DE49-9D33-E08045664FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
+    <workbookView xWindow="18480" yWindow="7440" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
   <si>
     <t xml:space="preserve"> Carnivore amdoparvovirus 1</t>
   </si>
@@ -146,12 +146,6 @@
     <t>Labrador-amdoparvovirus-1</t>
   </si>
   <si>
-    <t>MULL</t>
-  </si>
-  <si>
-    <t>LAPV</t>
-  </si>
-  <si>
     <t>Urocyon cinereoargenteus</t>
   </si>
   <si>
@@ -180,6 +174,51 @@
   </si>
   <si>
     <t>sequenceID</t>
+  </si>
+  <si>
+    <t>KJ641663</t>
+  </si>
+  <si>
+    <t>KY432922</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carnivore amdoparvovirus 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carnivore amdoparvovirus 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carnivore amdoparvovirus 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carnivore amdoparvovirus 5</t>
+  </si>
+  <si>
+    <t>LaAV-1</t>
+  </si>
+  <si>
+    <t>RtRn-ParV</t>
+  </si>
+  <si>
+    <t>BtRl-PV</t>
+  </si>
+  <si>
+    <t>Rattus nitidus parvovirus</t>
+  </si>
+  <si>
+    <t>Rhinolophus lepidus parvovirus</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Rhinolophus lepidus</t>
+  </si>
+  <si>
+    <t>Rattus nitidus</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -555,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5CE6FC-94FB-E64A-8308-5869E9818659}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,13 +611,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -625,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -634,10 +673,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
@@ -672,19 +711,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
         <v>33</v>
@@ -719,19 +758,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
         <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -766,19 +805,19 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -813,19 +852,19 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -857,46 +896,140 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/genus/amdo-refseqs-side-data.xlsx
+++ b/tabular/genus/amdo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9027AA-B22A-DE49-9D33-E08045664FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB15522-4919-2E4C-9FD6-F23DAC51F9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18480" yWindow="7440" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,19 +943,19 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
@@ -990,19 +990,19 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>

--- a/tabular/genus/amdo-refseqs-side-data.xlsx
+++ b/tabular/genus/amdo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB15522-4919-2E4C-9FD6-F23DAC51F9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA87FAC-C268-8E4B-85BC-D8C7620AFAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18480" yWindow="7440" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
   <si>
-    <t xml:space="preserve"> Carnivore amdoparvovirus 1</t>
-  </si>
-  <si>
     <t>Aleutian mink disease parvovirus</t>
   </si>
   <si>
@@ -182,18 +179,6 @@
     <t>KY432922</t>
   </si>
   <si>
-    <t xml:space="preserve"> Carnivore amdoparvovirus 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Carnivore amdoparvovirus 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Carnivore amdoparvovirus 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Carnivore amdoparvovirus 5</t>
-  </si>
-  <si>
     <t>LaAV-1</t>
   </si>
   <si>
@@ -219,6 +204,21 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>Carnivore amdoparvovirus 2</t>
+  </si>
+  <si>
+    <t>Carnivore amdoparvovirus 3</t>
+  </si>
+  <si>
+    <t>Carnivore amdoparvovirus 4</t>
+  </si>
+  <si>
+    <t>Carnivore amdoparvovirus 5</t>
+  </si>
+  <si>
+    <t>Carnivore amdoparvovirus 1</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E6" sqref="A1:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,425 +611,425 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
         <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
         <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/genus/amdo-refseqs-side-data.xlsx
+++ b/tabular/genus/amdo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA87FAC-C268-8E4B-85BC-D8C7620AFAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD47251F-56C4-E544-8511-D59A8CE457EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18480" yWindow="7440" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:O9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
